--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -166,10 +166,10 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
@@ -2067,25 +2067,25 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.683982683982684</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2093,25 +2093,25 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2275,25 +2275,25 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.6036585365853658</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L40">
         <v>198</v>
       </c>
       <c r="M40">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="10:17">
